--- a/target/classes/out/fr.xlsx
+++ b/target/classes/out/fr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="144">
   <si>
     <t>WORD</t>
   </si>
@@ -23,6 +23,21 @@
     <t>FREQUENCY</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>жизни</t>
   </si>
   <si>
@@ -32,6 +47,12 @@
     <t>7</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>радость</t>
   </si>
   <si>
@@ -41,12 +62,15 @@
     <t>цель</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>людям</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -56,6 +80,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
     <t>атмосферу</t>
   </si>
   <si>
@@ -92,7 +119,7 @@
     <t>человека</t>
   </si>
   <si>
-    <t>18</t>
+    <t>!</t>
   </si>
   <si>
     <t>1</t>
@@ -105,6 +132,12 @@
   </si>
   <si>
     <t>english</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>some</t>
   </si>
   <si>
     <t>words</t>
@@ -455,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -499,1308 +532,1396 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" t="s">
+        <v>143</v>
+      </c>
+      <c r="C130" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/out/fr.xlsx
+++ b/target/classes/out/fr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="211">
   <si>
     <t>WORD</t>
   </si>
@@ -23,427 +23,628 @@
     <t>FREQUENCY</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>жизни</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>радость</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>цель</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>людям</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>человек</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>атмосферу</t>
+  </si>
+  <si>
+    <t>добро</t>
+  </si>
+  <si>
+    <t>достоинством</t>
+  </si>
+  <si>
+    <t>живет</t>
+  </si>
+  <si>
+    <t>не</t>
+  </si>
+  <si>
+    <t>помощи</t>
+  </si>
+  <si>
+    <t>прежде</t>
+  </si>
+  <si>
+    <t>приносить</t>
+  </si>
+  <si>
+    <t>прожить</t>
+  </si>
+  <si>
+    <t>ради</t>
+  </si>
+  <si>
+    <t>ставит</t>
+  </si>
+  <si>
+    <t>творчество</t>
+  </si>
+  <si>
+    <t>то</t>
+  </si>
+  <si>
+    <t>человека</t>
+  </si>
+  <si>
+    <t>его</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>быть</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>если</t>
+  </si>
+  <si>
+    <t>он</t>
+  </si>
+  <si>
+    <t>себе</t>
+  </si>
+  <si>
+    <t>себя</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>жизни</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>радость</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>цель</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>людям</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>NU</t>
+    <t>beginning</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>words</t>
+  </si>
+  <si>
+    <t>балериной</t>
+  </si>
+  <si>
+    <t>благополучии</t>
+  </si>
+  <si>
+    <t>великодушия</t>
+  </si>
+  <si>
+    <t>внести</t>
+  </si>
+  <si>
+    <t>врать</t>
+  </si>
+  <si>
+    <t>вспоминать</t>
+  </si>
+  <si>
+    <t>выбирает</t>
+  </si>
+  <si>
+    <t>высокой</t>
+  </si>
+  <si>
+    <t>дает</t>
+  </si>
+  <si>
+    <t>деликатности</t>
+  </si>
+  <si>
+    <t>доброты</t>
+  </si>
+  <si>
+    <t>добрую</t>
+  </si>
+  <si>
+    <t>должна</t>
+  </si>
+  <si>
+    <t>достоинства</t>
+  </si>
+  <si>
+    <t>достоинство</t>
+  </si>
+  <si>
+    <t>достойную</t>
+  </si>
+  <si>
+    <t>другим</t>
+  </si>
+  <si>
+    <t>другими</t>
+  </si>
+  <si>
+    <t>другом</t>
+  </si>
+  <si>
+    <t>думает</t>
+  </si>
+  <si>
+    <t>жизненную</t>
+  </si>
+  <si>
+    <t>жизнь</t>
+  </si>
+  <si>
+    <t>жить</t>
+  </si>
+  <si>
+    <t>заботами</t>
+  </si>
+  <si>
+    <t>задачей</t>
+  </si>
+  <si>
+    <t>задачу</t>
+  </si>
+  <si>
+    <t>ибо</t>
+  </si>
+  <si>
+    <t>извиняться</t>
+  </si>
+  <si>
+    <t>или</t>
+  </si>
+  <si>
+    <t>интуитивно</t>
+  </si>
+  <si>
+    <t>каждого</t>
+  </si>
+  <si>
+    <t>какие</t>
+  </si>
+  <si>
+    <t>какого</t>
+  </si>
+  <si>
+    <t>какую</t>
+  </si>
+  <si>
+    <t>людей</t>
+  </si>
+  <si>
+    <t>мелкими</t>
+  </si>
+  <si>
+    <t>мелких</t>
+  </si>
+  <si>
+    <t>можно</t>
+  </si>
+  <si>
+    <t>молчания</t>
+  </si>
+  <si>
+    <t>надо</t>
+  </si>
+  <si>
+    <t>настоящую</t>
+  </si>
+  <si>
+    <t>находить</t>
+  </si>
+  <si>
+    <t>невольно</t>
+  </si>
+  <si>
+    <t>немалых</t>
+  </si>
+  <si>
+    <t>неудачи</t>
+  </si>
+  <si>
+    <t>низкой</t>
+  </si>
+  <si>
+    <t>но</t>
+  </si>
+  <si>
+    <t>нуждаются</t>
+  </si>
+  <si>
+    <t>облегчать</t>
+  </si>
+  <si>
+    <t>обманывает</t>
+  </si>
+  <si>
+    <t>обманывая</t>
+  </si>
+  <si>
+    <t>одно</t>
+  </si>
+  <si>
+    <t>определять</t>
+  </si>
+  <si>
+    <t>останется</t>
+  </si>
+  <si>
+    <t>отдавал</t>
+  </si>
+  <si>
+    <t>отказываться</t>
+  </si>
+  <si>
+    <t>оценивает</t>
+  </si>
+  <si>
+    <t>оценку</t>
+  </si>
+  <si>
+    <t>ошибку</t>
+  </si>
+  <si>
+    <t>поведении</t>
+  </si>
+  <si>
+    <t>подозрительности</t>
+  </si>
+  <si>
+    <t>подумайте</t>
+  </si>
+  <si>
+    <t>позволяет</t>
+  </si>
+  <si>
+    <t>помочь</t>
+  </si>
+  <si>
+    <t>поняли</t>
+  </si>
+  <si>
+    <t>постигнуть</t>
+  </si>
+  <si>
+    <t>правдивым</t>
+  </si>
+  <si>
+    <t>правило</t>
+  </si>
+  <si>
+    <t>признавать</t>
+  </si>
+  <si>
+    <t>принести</t>
+  </si>
+  <si>
+    <t>принципах</t>
+  </si>
+  <si>
+    <t>принципы</t>
+  </si>
+  <si>
+    <t>прожитого</t>
+  </si>
+  <si>
+    <t>промолчали</t>
+  </si>
+  <si>
+    <t>разному</t>
+  </si>
+  <si>
+    <t>родиться</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>самооценке</t>
+  </si>
+  <si>
+    <t>сберегут</t>
+  </si>
+  <si>
+    <t>своими</t>
+  </si>
+  <si>
+    <t>силы</t>
+  </si>
+  <si>
+    <t>следа</t>
+  </si>
+  <si>
+    <t>служил</t>
+  </si>
+  <si>
+    <t>собственном</t>
+  </si>
+  <si>
+    <t>соврал</t>
+  </si>
+  <si>
+    <t>сознательно</t>
+  </si>
+  <si>
+    <t>страдания</t>
+  </si>
+  <si>
+    <t>стыдно</t>
+  </si>
+  <si>
+    <t>судить</t>
+  </si>
+  <si>
+    <t>существования</t>
+  </si>
+  <si>
+    <t>счастье</t>
+  </si>
+  <si>
+    <t>творить</t>
+  </si>
+  <si>
+    <t>требует</t>
+  </si>
+  <si>
+    <t>тягостного</t>
+  </si>
+  <si>
+    <t>увеличивать</t>
+  </si>
+  <si>
+    <t>удовольствий</t>
+  </si>
+  <si>
+    <t>умения</t>
+  </si>
+  <si>
+    <t>уровне</t>
+  </si>
+  <si>
+    <t>успешно</t>
+  </si>
+  <si>
+    <t>ученым</t>
+  </si>
+  <si>
+    <t>хорошим</t>
+  </si>
+  <si>
+    <t>художником</t>
+  </si>
+  <si>
+    <t>цели</t>
+  </si>
+  <si>
+    <t>человеку</t>
+  </si>
+  <si>
+    <t>человечности</t>
+  </si>
+  <si>
+    <t>чтобы</t>
+  </si>
+  <si>
+    <t>эгоистом</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>а</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>атмосферу</t>
-  </si>
-  <si>
-    <t>добро</t>
-  </si>
-  <si>
-    <t>достоинством</t>
-  </si>
-  <si>
-    <t>живет</t>
-  </si>
-  <si>
-    <t>помощи</t>
-  </si>
-  <si>
-    <t>прежде</t>
-  </si>
-  <si>
-    <t>приносить</t>
-  </si>
-  <si>
-    <t>прожить</t>
-  </si>
-  <si>
-    <t>ради</t>
-  </si>
-  <si>
-    <t>ставит</t>
-  </si>
-  <si>
-    <t>творчество</t>
-  </si>
-  <si>
-    <t>человека</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>всего</t>
+  </si>
+  <si>
+    <t>для</t>
+  </si>
+  <si>
+    <t>может</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>по</t>
+  </si>
+  <si>
+    <t>только</t>
+  </si>
+  <si>
+    <t>тому</t>
+  </si>
+  <si>
+    <t>уметь</t>
+  </si>
+  <si>
+    <t>чему</t>
+  </si>
+  <si>
+    <t>что</t>
+  </si>
+  <si>
+    <t>это</t>
+  </si>
+  <si>
+    <t>было</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>beginning</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>words</t>
-  </si>
-  <si>
-    <t>балериной</t>
-  </si>
-  <si>
-    <t>благополучии</t>
-  </si>
-  <si>
-    <t>великодушия</t>
-  </si>
-  <si>
-    <t>внести</t>
-  </si>
-  <si>
-    <t>врать</t>
-  </si>
-  <si>
-    <t>вспоминать</t>
-  </si>
-  <si>
-    <t>выбирает</t>
-  </si>
-  <si>
-    <t>высокой</t>
-  </si>
-  <si>
-    <t>дает</t>
-  </si>
-  <si>
-    <t>деликатности</t>
-  </si>
-  <si>
-    <t>доброты</t>
-  </si>
-  <si>
-    <t>добрую</t>
-  </si>
-  <si>
-    <t>должна</t>
-  </si>
-  <si>
-    <t>достоинства</t>
-  </si>
-  <si>
-    <t>достоинство</t>
-  </si>
-  <si>
-    <t>достойную</t>
-  </si>
-  <si>
-    <t>другим</t>
-  </si>
-  <si>
-    <t>другими</t>
-  </si>
-  <si>
-    <t>другом</t>
-  </si>
-  <si>
-    <t>думает</t>
-  </si>
-  <si>
-    <t>жизненную</t>
-  </si>
-  <si>
-    <t>заботами</t>
-  </si>
-  <si>
-    <t>задачей</t>
-  </si>
-  <si>
-    <t>задачу</t>
-  </si>
-  <si>
-    <t>ибо</t>
-  </si>
-  <si>
-    <t>извиняться</t>
-  </si>
-  <si>
-    <t>интуитивно</t>
-  </si>
-  <si>
-    <t>каждого</t>
-  </si>
-  <si>
-    <t>какие</t>
-  </si>
-  <si>
-    <t>какого</t>
-  </si>
-  <si>
-    <t>какую</t>
-  </si>
-  <si>
-    <t>людей</t>
-  </si>
-  <si>
-    <t>мелкими</t>
-  </si>
-  <si>
-    <t>мелких</t>
-  </si>
-  <si>
-    <t>молчания</t>
-  </si>
-  <si>
-    <t>настоящую</t>
-  </si>
-  <si>
-    <t>находить</t>
-  </si>
-  <si>
-    <t>невольно</t>
-  </si>
-  <si>
-    <t>немалых</t>
-  </si>
-  <si>
-    <t>неудачи</t>
-  </si>
-  <si>
-    <t>низкой</t>
-  </si>
-  <si>
-    <t>нуждаются</t>
-  </si>
-  <si>
-    <t>облегчать</t>
-  </si>
-  <si>
-    <t>обманывает</t>
-  </si>
-  <si>
-    <t>обманывая</t>
-  </si>
-  <si>
-    <t>одно</t>
-  </si>
-  <si>
-    <t>определять</t>
-  </si>
-  <si>
-    <t>останется</t>
-  </si>
-  <si>
-    <t>отдавал</t>
-  </si>
-  <si>
-    <t>отказываться</t>
-  </si>
-  <si>
-    <t>оценивает</t>
-  </si>
-  <si>
-    <t>оценку</t>
-  </si>
-  <si>
-    <t>ошибку</t>
-  </si>
-  <si>
-    <t>поведении</t>
-  </si>
-  <si>
-    <t>подозрительности</t>
-  </si>
-  <si>
-    <t>подумайте</t>
-  </si>
-  <si>
-    <t>позволяет</t>
-  </si>
-  <si>
-    <t>помочь</t>
-  </si>
-  <si>
-    <t>поняли</t>
-  </si>
-  <si>
-    <t>постигнуть</t>
-  </si>
-  <si>
-    <t>правдивым</t>
-  </si>
-  <si>
-    <t>правило</t>
-  </si>
-  <si>
-    <t>признавать</t>
-  </si>
-  <si>
-    <t>принести</t>
-  </si>
-  <si>
-    <t>принципах</t>
-  </si>
-  <si>
-    <t>принципы</t>
-  </si>
-  <si>
-    <t>прожитого</t>
-  </si>
-  <si>
-    <t>промолчали</t>
-  </si>
-  <si>
-    <t>разному</t>
-  </si>
-  <si>
-    <t>родиться</t>
-  </si>
-  <si>
-    <t>самооценке</t>
-  </si>
-  <si>
-    <t>сберегут</t>
-  </si>
-  <si>
-    <t>своими</t>
-  </si>
-  <si>
-    <t>силы</t>
-  </si>
-  <si>
-    <t>следа</t>
-  </si>
-  <si>
-    <t>служил</t>
-  </si>
-  <si>
-    <t>собственном</t>
-  </si>
-  <si>
-    <t>соврал</t>
-  </si>
-  <si>
-    <t>сознательно</t>
-  </si>
-  <si>
-    <t>страдания</t>
-  </si>
-  <si>
-    <t>стыдно</t>
-  </si>
-  <si>
-    <t>судить</t>
-  </si>
-  <si>
-    <t>существования</t>
-  </si>
-  <si>
-    <t>счастье</t>
-  </si>
-  <si>
-    <t>творить</t>
-  </si>
-  <si>
-    <t>требует</t>
-  </si>
-  <si>
-    <t>тягостного</t>
-  </si>
-  <si>
-    <t>увеличивать</t>
-  </si>
-  <si>
-    <t>удовольствий</t>
-  </si>
-  <si>
-    <t>умения</t>
-  </si>
-  <si>
-    <t>уровне</t>
-  </si>
-  <si>
-    <t>успешно</t>
-  </si>
-  <si>
-    <t>ученым</t>
-  </si>
-  <si>
-    <t>хорошим</t>
-  </si>
-  <si>
-    <t>художником</t>
-  </si>
-  <si>
-    <t>цели</t>
-  </si>
-  <si>
-    <t>человеку</t>
-  </si>
-  <si>
-    <t>человечности</t>
-  </si>
-  <si>
-    <t>эгоистом</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>UN</t>
+    <t>вокруг</t>
+  </si>
+  <si>
+    <t>вот</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>давать</t>
+  </si>
+  <si>
+    <t>должен</t>
+  </si>
+  <si>
+    <t>должно</t>
+  </si>
+  <si>
+    <t>другие</t>
+  </si>
+  <si>
+    <t>других</t>
+  </si>
+  <si>
+    <t>есть</t>
+  </si>
+  <si>
+    <t>же</t>
+  </si>
+  <si>
+    <t>значит</t>
+  </si>
+  <si>
+    <t>из</t>
+  </si>
+  <si>
+    <t>иметь</t>
+  </si>
+  <si>
+    <t>их</t>
+  </si>
+  <si>
+    <t>каждый</t>
+  </si>
+  <si>
+    <t>когда</t>
+  </si>
+  <si>
+    <t>ли</t>
+  </si>
+  <si>
+    <t>лучше</t>
+  </si>
+  <si>
+    <t>люди</t>
+  </si>
+  <si>
+    <t>много</t>
+  </si>
+  <si>
+    <t>могут</t>
+  </si>
+  <si>
+    <t>на</t>
+  </si>
+  <si>
+    <t>перед</t>
+  </si>
+  <si>
+    <t>получить</t>
+  </si>
+  <si>
+    <t>просто</t>
+  </si>
+  <si>
+    <t>самого</t>
+  </si>
+  <si>
+    <t>свет</t>
+  </si>
+  <si>
+    <t>своего</t>
+  </si>
+  <si>
+    <t>своей</t>
+  </si>
+  <si>
+    <t>свою</t>
+  </si>
+  <si>
+    <t>собой</t>
+  </si>
+  <si>
+    <t>сразу</t>
+  </si>
+  <si>
+    <t>такая</t>
+  </si>
+  <si>
+    <t>тоже</t>
+  </si>
+  <si>
+    <t>у</t>
+  </si>
+  <si>
+    <t>чего</t>
+  </si>
+  <si>
+    <t>чем</t>
+  </si>
+  <si>
+    <t>этой</t>
   </si>
 </sst>
 </file>
@@ -488,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -532,62 +733,62 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -595,244 +796,244 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -840,10 +1041,10 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
@@ -851,10 +1052,10 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
@@ -862,10 +1063,10 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -873,10 +1074,10 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
@@ -884,10 +1085,10 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -895,10 +1096,10 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -906,10 +1107,10 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -917,10 +1118,10 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -928,10 +1129,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -939,10 +1140,10 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
@@ -950,10 +1151,10 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -961,10 +1162,10 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
@@ -972,10 +1173,10 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -983,10 +1184,10 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -994,10 +1195,10 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
@@ -1005,10 +1206,10 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
@@ -1016,10 +1217,10 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49">
@@ -1027,10 +1228,10 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
@@ -1038,10 +1239,10 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
@@ -1049,10 +1250,10 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
@@ -1060,10 +1261,10 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53">
@@ -1071,10 +1272,10 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
@@ -1082,10 +1283,10 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55">
@@ -1093,10 +1294,10 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
@@ -1104,10 +1305,10 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
@@ -1115,10 +1316,10 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
@@ -1126,10 +1327,10 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59">
@@ -1137,10 +1338,10 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60">
@@ -1148,10 +1349,10 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61">
@@ -1159,10 +1360,10 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
@@ -1170,10 +1371,10 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63">
@@ -1181,10 +1382,10 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64">
@@ -1192,10 +1393,10 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
@@ -1203,10 +1404,10 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -1214,10 +1415,10 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
@@ -1225,10 +1426,10 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
@@ -1236,10 +1437,10 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
@@ -1247,10 +1448,10 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70">
@@ -1258,10 +1459,10 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71">
@@ -1269,10 +1470,10 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72">
@@ -1280,10 +1481,10 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73">
@@ -1291,10 +1492,10 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74">
@@ -1302,10 +1503,10 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75">
@@ -1313,10 +1514,10 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76">
@@ -1324,10 +1525,10 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77">
@@ -1335,10 +1536,10 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78">
@@ -1346,10 +1547,10 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79">
@@ -1357,10 +1558,10 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80">
@@ -1368,10 +1569,10 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
@@ -1379,10 +1580,10 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82">
@@ -1390,10 +1591,10 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83">
@@ -1401,10 +1602,10 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
@@ -1412,10 +1613,10 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85">
@@ -1423,10 +1624,10 @@
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
@@ -1434,10 +1635,10 @@
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -1445,10 +1646,10 @@
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
@@ -1456,10 +1657,10 @@
         <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89">
@@ -1467,10 +1668,10 @@
         <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90">
@@ -1478,10 +1679,10 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91">
@@ -1489,10 +1690,10 @@
         <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92">
@@ -1500,10 +1701,10 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93">
@@ -1511,10 +1712,10 @@
         <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94">
@@ -1522,10 +1723,10 @@
         <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95">
@@ -1533,10 +1734,10 @@
         <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96">
@@ -1544,10 +1745,10 @@
         <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97">
@@ -1555,10 +1756,10 @@
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98">
@@ -1566,10 +1767,10 @@
         <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99">
@@ -1577,10 +1778,10 @@
         <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100">
@@ -1588,10 +1789,10 @@
         <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101">
@@ -1599,10 +1800,10 @@
         <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102">
@@ -1610,10 +1811,10 @@
         <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103">
@@ -1621,10 +1822,10 @@
         <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104">
@@ -1632,10 +1833,10 @@
         <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105">
@@ -1643,10 +1844,10 @@
         <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106">
@@ -1654,10 +1855,10 @@
         <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107">
@@ -1665,10 +1866,10 @@
         <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108">
@@ -1676,10 +1877,10 @@
         <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109">
@@ -1687,10 +1888,10 @@
         <v>121</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110">
@@ -1698,10 +1899,10 @@
         <v>122</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111">
@@ -1709,10 +1910,10 @@
         <v>123</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112">
@@ -1720,10 +1921,10 @@
         <v>124</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113">
@@ -1731,10 +1932,10 @@
         <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
@@ -1742,10 +1943,10 @@
         <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115">
@@ -1753,10 +1954,10 @@
         <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116">
@@ -1764,10 +1965,10 @@
         <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117">
@@ -1775,10 +1976,10 @@
         <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118">
@@ -1786,10 +1987,10 @@
         <v>130</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119">
@@ -1797,10 +1998,10 @@
         <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120">
@@ -1808,10 +2009,10 @@
         <v>132</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121">
@@ -1819,10 +2020,10 @@
         <v>133</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122">
@@ -1830,10 +2031,10 @@
         <v>134</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123">
@@ -1841,10 +2042,10 @@
         <v>135</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124">
@@ -1852,10 +2053,10 @@
         <v>136</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125">
@@ -1863,10 +2064,10 @@
         <v>137</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126">
@@ -1874,10 +2075,10 @@
         <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127">
@@ -1885,10 +2086,10 @@
         <v>139</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128">
@@ -1896,10 +2097,10 @@
         <v>140</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129">
@@ -1907,10 +2108,10 @@
         <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130">
@@ -1918,10 +2119,725 @@
         <v>142</v>
       </c>
       <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
         <v>143</v>
       </c>
-      <c r="C130" t="s">
-        <v>36</v>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" t="s">
+        <v>156</v>
+      </c>
+      <c r="C143" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>157</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>160</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>164</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>173</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>174</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>175</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>176</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>177</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>178</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>179</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>180</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>181</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>182</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>183</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>184</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>185</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>186</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>187</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>188</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>189</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>190</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>191</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>192</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>193</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>194</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>195</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>196</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>197</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>198</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>199</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>201</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>202</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>203</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>204</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>205</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>206</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>207</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>208</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>209</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>210</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/out/fr.xlsx
+++ b/target/classes/out/fr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="135">
   <si>
     <t>WORD</t>
   </si>
@@ -29,34 +29,22 @@
     <t>RU</t>
   </si>
   <si>
-    <t>21</t>
+    <t>7</t>
   </si>
   <si>
     <t>радость</t>
   </si>
   <si>
-    <t>15</t>
+    <t>5</t>
   </si>
   <si>
     <t>цель</t>
   </si>
   <si>
-    <t>в</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>людям</t>
   </si>
   <si>
-    <t>и</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>человек</t>
+    <t>3</t>
   </si>
   <si>
     <t>19</t>
@@ -65,7 +53,7 @@
     <t>NU</t>
   </si>
   <si>
-    <t>6</t>
+    <t>2</t>
   </si>
   <si>
     <t>атмосферу</t>
@@ -80,9 +68,6 @@
     <t>живет</t>
   </si>
   <si>
-    <t>не</t>
-  </si>
-  <si>
     <t>помощи</t>
   </si>
   <si>
@@ -104,40 +89,13 @@
     <t>творчество</t>
   </si>
   <si>
-    <t>то</t>
-  </si>
-  <si>
     <t>человека</t>
   </si>
   <si>
-    <t>его</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>быть</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>если</t>
-  </si>
-  <si>
-    <t>он</t>
-  </si>
-  <si>
-    <t>себе</t>
-  </si>
-  <si>
-    <t>себя</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>3</t>
+    <t>1</t>
   </si>
   <si>
     <t>beginning</t>
@@ -221,12 +179,6 @@
     <t>жизненную</t>
   </si>
   <si>
-    <t>жизнь</t>
-  </si>
-  <si>
-    <t>жить</t>
-  </si>
-  <si>
     <t>заботами</t>
   </si>
   <si>
@@ -242,9 +194,6 @@
     <t>извиняться</t>
   </si>
   <si>
-    <t>или</t>
-  </si>
-  <si>
     <t>интуитивно</t>
   </si>
   <si>
@@ -269,15 +218,9 @@
     <t>мелких</t>
   </si>
   <si>
-    <t>можно</t>
-  </si>
-  <si>
     <t>молчания</t>
   </si>
   <si>
-    <t>надо</t>
-  </si>
-  <si>
     <t>настоящую</t>
   </si>
   <si>
@@ -296,9 +239,6 @@
     <t>низкой</t>
   </si>
   <si>
-    <t>но</t>
-  </si>
-  <si>
     <t>нуждаются</t>
   </si>
   <si>
@@ -386,9 +326,6 @@
     <t>родиться</t>
   </si>
   <si>
-    <t>с</t>
-  </si>
-  <si>
     <t>самооценке</t>
   </si>
   <si>
@@ -473,9 +410,6 @@
     <t>человечности</t>
   </si>
   <si>
-    <t>чтобы</t>
-  </si>
-  <si>
     <t>эгоистом</t>
   </si>
   <si>
@@ -483,168 +417,6 @@
   </si>
   <si>
     <t>UN</t>
-  </si>
-  <si>
-    <t>а</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>всего</t>
-  </si>
-  <si>
-    <t>для</t>
-  </si>
-  <si>
-    <t>может</t>
-  </si>
-  <si>
-    <t>о</t>
-  </si>
-  <si>
-    <t>от</t>
-  </si>
-  <si>
-    <t>по</t>
-  </si>
-  <si>
-    <t>только</t>
-  </si>
-  <si>
-    <t>тому</t>
-  </si>
-  <si>
-    <t>уметь</t>
-  </si>
-  <si>
-    <t>чему</t>
-  </si>
-  <si>
-    <t>что</t>
-  </si>
-  <si>
-    <t>это</t>
-  </si>
-  <si>
-    <t>было</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>вокруг</t>
-  </si>
-  <si>
-    <t>вот</t>
-  </si>
-  <si>
-    <t>да</t>
-  </si>
-  <si>
-    <t>давать</t>
-  </si>
-  <si>
-    <t>должен</t>
-  </si>
-  <si>
-    <t>должно</t>
-  </si>
-  <si>
-    <t>другие</t>
-  </si>
-  <si>
-    <t>других</t>
-  </si>
-  <si>
-    <t>есть</t>
-  </si>
-  <si>
-    <t>же</t>
-  </si>
-  <si>
-    <t>значит</t>
-  </si>
-  <si>
-    <t>из</t>
-  </si>
-  <si>
-    <t>иметь</t>
-  </si>
-  <si>
-    <t>их</t>
-  </si>
-  <si>
-    <t>каждый</t>
-  </si>
-  <si>
-    <t>когда</t>
-  </si>
-  <si>
-    <t>ли</t>
-  </si>
-  <si>
-    <t>лучше</t>
-  </si>
-  <si>
-    <t>люди</t>
-  </si>
-  <si>
-    <t>много</t>
-  </si>
-  <si>
-    <t>могут</t>
-  </si>
-  <si>
-    <t>на</t>
-  </si>
-  <si>
-    <t>перед</t>
-  </si>
-  <si>
-    <t>получить</t>
-  </si>
-  <si>
-    <t>просто</t>
-  </si>
-  <si>
-    <t>самого</t>
-  </si>
-  <si>
-    <t>свет</t>
-  </si>
-  <si>
-    <t>своего</t>
-  </si>
-  <si>
-    <t>своей</t>
-  </si>
-  <si>
-    <t>свою</t>
-  </si>
-  <si>
-    <t>собой</t>
-  </si>
-  <si>
-    <t>сразу</t>
-  </si>
-  <si>
-    <t>такая</t>
-  </si>
-  <si>
-    <t>тоже</t>
-  </si>
-  <si>
-    <t>у</t>
-  </si>
-  <si>
-    <t>чего</t>
-  </si>
-  <si>
-    <t>чем</t>
-  </si>
-  <si>
-    <t>этой</t>
   </si>
 </sst>
 </file>
@@ -689,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -755,15 +527,15 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -774,7 +546,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -785,123 +557,123 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -909,54 +681,54 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -967,1877 +739,1096 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="C124" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>137</v>
-      </c>
-      <c r="B125" t="s">
-        <v>4</v>
-      </c>
-      <c r="C125" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>138</v>
-      </c>
-      <c r="B126" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>139</v>
-      </c>
-      <c r="B127" t="s">
-        <v>4</v>
-      </c>
-      <c r="C127" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>140</v>
-      </c>
-      <c r="B128" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>141</v>
-      </c>
-      <c r="B129" t="s">
-        <v>4</v>
-      </c>
-      <c r="C129" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>142</v>
-      </c>
-      <c r="B130" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>143</v>
-      </c>
-      <c r="B131" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>144</v>
-      </c>
-      <c r="B132" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>145</v>
-      </c>
-      <c r="B133" t="s">
-        <v>4</v>
-      </c>
-      <c r="C133" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>146</v>
-      </c>
-      <c r="B134" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>147</v>
-      </c>
-      <c r="B135" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>148</v>
-      </c>
-      <c r="B136" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>149</v>
-      </c>
-      <c r="B137" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>150</v>
-      </c>
-      <c r="B138" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>151</v>
-      </c>
-      <c r="B139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>152</v>
-      </c>
-      <c r="B140" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>153</v>
-      </c>
-      <c r="B141" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>154</v>
-      </c>
-      <c r="B142" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>155</v>
-      </c>
-      <c r="B143" t="s">
-        <v>156</v>
-      </c>
-      <c r="C143" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>157</v>
-      </c>
-      <c r="B144" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>159</v>
-      </c>
-      <c r="B145" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>160</v>
-      </c>
-      <c r="B146" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>161</v>
-      </c>
-      <c r="B147" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>162</v>
-      </c>
-      <c r="B148" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>163</v>
-      </c>
-      <c r="B149" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>164</v>
-      </c>
-      <c r="B150" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>165</v>
-      </c>
-      <c r="B151" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>166</v>
-      </c>
-      <c r="B152" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>167</v>
-      </c>
-      <c r="B153" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>168</v>
-      </c>
-      <c r="B154" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>169</v>
-      </c>
-      <c r="B155" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>170</v>
-      </c>
-      <c r="B156" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>171</v>
-      </c>
-      <c r="B157" t="s">
-        <v>4</v>
-      </c>
-      <c r="C157" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>173</v>
-      </c>
-      <c r="B158" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>174</v>
-      </c>
-      <c r="B159" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>175</v>
-      </c>
-      <c r="B160" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>176</v>
-      </c>
-      <c r="B161" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>177</v>
-      </c>
-      <c r="B162" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>178</v>
-      </c>
-      <c r="B163" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>179</v>
-      </c>
-      <c r="B164" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>180</v>
-      </c>
-      <c r="B165" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>181</v>
-      </c>
-      <c r="B166" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>182</v>
-      </c>
-      <c r="B167" t="s">
-        <v>4</v>
-      </c>
-      <c r="C167" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>183</v>
-      </c>
-      <c r="B168" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>184</v>
-      </c>
-      <c r="B169" t="s">
-        <v>4</v>
-      </c>
-      <c r="C169" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>185</v>
-      </c>
-      <c r="B170" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>186</v>
-      </c>
-      <c r="B171" t="s">
-        <v>4</v>
-      </c>
-      <c r="C171" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>187</v>
-      </c>
-      <c r="B172" t="s">
-        <v>4</v>
-      </c>
-      <c r="C172" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>188</v>
-      </c>
-      <c r="B173" t="s">
-        <v>4</v>
-      </c>
-      <c r="C173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>189</v>
-      </c>
-      <c r="B174" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>190</v>
-      </c>
-      <c r="B175" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>191</v>
-      </c>
-      <c r="B176" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>192</v>
-      </c>
-      <c r="B177" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>193</v>
-      </c>
-      <c r="B178" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>194</v>
-      </c>
-      <c r="B179" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>195</v>
-      </c>
-      <c r="B180" t="s">
-        <v>4</v>
-      </c>
-      <c r="C180" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>196</v>
-      </c>
-      <c r="B181" t="s">
-        <v>4</v>
-      </c>
-      <c r="C181" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>197</v>
-      </c>
-      <c r="B182" t="s">
-        <v>4</v>
-      </c>
-      <c r="C182" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>198</v>
-      </c>
-      <c r="B183" t="s">
-        <v>4</v>
-      </c>
-      <c r="C183" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>199</v>
-      </c>
-      <c r="B184" t="s">
-        <v>4</v>
-      </c>
-      <c r="C184" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>200</v>
-      </c>
-      <c r="B185" t="s">
-        <v>4</v>
-      </c>
-      <c r="C185" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>201</v>
-      </c>
-      <c r="B186" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>202</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4</v>
-      </c>
-      <c r="C187" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>203</v>
-      </c>
-      <c r="B188" t="s">
-        <v>4</v>
-      </c>
-      <c r="C188" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>204</v>
-      </c>
-      <c r="B189" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>205</v>
-      </c>
-      <c r="B190" t="s">
-        <v>4</v>
-      </c>
-      <c r="C190" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>206</v>
-      </c>
-      <c r="B191" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>207</v>
-      </c>
-      <c r="B192" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>208</v>
-      </c>
-      <c r="B193" t="s">
-        <v>4</v>
-      </c>
-      <c r="C193" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>209</v>
-      </c>
-      <c r="B194" t="s">
-        <v>4</v>
-      </c>
-      <c r="C194" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>210</v>
-      </c>
-      <c r="B195" t="s">
-        <v>4</v>
-      </c>
-      <c r="C195" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
